--- a/data_input/analytics/state-intent matrix.xlsx
+++ b/data_input/analytics/state-intent matrix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a3b000772d7eba9b/Обмен АТИ/Final/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\albud\Downloads\Telegram Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{8A507B0D-4CE6-4384-8CBD-B69E894BA805}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F119CDF1-7EDB-4979-A65B-0C859912E4D5}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{569429E8-F82E-4D33-A3F9-5B76AFD64BF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0008ED27-0712-43D5-920A-7E8B572C54E9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{0008ED27-0712-43D5-920A-7E8B572C54E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -29,15 +29,12 @@
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="28">
   <si>
     <t>state</t>
   </si>
@@ -108,20 +105,26 @@
     <t>rtc_state_manager_inactive.py</t>
   </si>
   <si>
-    <t>rtc_state_manager_reserve.py</t>
-  </si>
-  <si>
     <t>В процессе</t>
   </si>
   <si>
     <t>states_stub</t>
+  </si>
+  <si>
+    <t>quota_repair</t>
+  </si>
+  <si>
+    <t>state_manager_reserve.py</t>
+  </si>
+  <si>
+    <t>spawn_dynamic</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,6 +142,23 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -148,7 +168,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -222,11 +242,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -234,25 +263,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -268,9 +316,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -308,7 +356,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -414,7 +462,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -556,7 +604,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -564,852 +612,1107 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2F1A299-3274-4F64-AC7B-012C72EC8126}">
-  <dimension ref="A6:AF21"/>
+  <dimension ref="A6:AJ24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="W1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.85546875" customWidth="1"/>
-    <col min="10" max="10" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.140625" customWidth="1"/>
-    <col min="12" max="12" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.42578125" customWidth="1"/>
-    <col min="15" max="15" width="12.28515625" customWidth="1"/>
-    <col min="16" max="16" width="9" customWidth="1"/>
-    <col min="17" max="17" width="16.7109375" customWidth="1"/>
-    <col min="18" max="18" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" customWidth="1"/>
-    <col min="20" max="20" width="10.140625" customWidth="1"/>
-    <col min="21" max="21" width="14" customWidth="1"/>
-    <col min="22" max="22" width="7.42578125" customWidth="1"/>
-    <col min="23" max="23" width="12" customWidth="1"/>
-    <col min="24" max="24" width="10" customWidth="1"/>
-    <col min="25" max="25" width="19.140625" customWidth="1"/>
-    <col min="26" max="26" width="9" customWidth="1"/>
-    <col min="27" max="27" width="12.5703125" customWidth="1"/>
-    <col min="28" max="28" width="15.42578125" customWidth="1"/>
-    <col min="29" max="29" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.109375" customWidth="1"/>
+    <col min="6" max="6" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.88671875" customWidth="1"/>
+    <col min="10" max="10" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.109375" customWidth="1"/>
+    <col min="12" max="12" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.44140625" customWidth="1"/>
+    <col min="15" max="15" width="12.33203125" customWidth="1"/>
+    <col min="16" max="18" width="9" customWidth="1"/>
+    <col min="19" max="19" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9" customWidth="1"/>
+    <col min="21" max="21" width="16.6640625" customWidth="1"/>
+    <col min="22" max="22" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5546875" customWidth="1"/>
+    <col min="24" max="24" width="10.109375" customWidth="1"/>
+    <col min="25" max="25" width="14" customWidth="1"/>
+    <col min="26" max="26" width="7.44140625" customWidth="1"/>
+    <col min="27" max="27" width="12" customWidth="1"/>
+    <col min="28" max="28" width="10" customWidth="1"/>
+    <col min="29" max="29" width="19.109375" customWidth="1"/>
+    <col min="30" max="30" width="9" customWidth="1"/>
+    <col min="31" max="31" width="12.5546875" customWidth="1"/>
+    <col min="32" max="32" width="15.44140625" customWidth="1"/>
+    <col min="33" max="33" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="6.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+    <row r="6" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U6">
+        <v>3</v>
+      </c>
+      <c r="W6">
+        <v>2</v>
+      </c>
+      <c r="Y6">
+        <v>4</v>
+      </c>
+      <c r="AA6">
+        <v>6</v>
+      </c>
+      <c r="AC6">
+        <v>5</v>
+      </c>
+      <c r="AE6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="7" t="s">
+      <c r="B7" s="12"/>
+      <c r="C7" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="12"/>
+      <c r="G7" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="7" t="s">
+      <c r="H7" s="12"/>
+      <c r="I7" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="J7" s="12"/>
+      <c r="K7" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="L7" s="12"/>
+      <c r="M7" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="N7" s="12"/>
+      <c r="O7" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="8"/>
-      <c r="I7" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="J7" s="8"/>
-      <c r="K7" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="L7" s="8"/>
-      <c r="M7" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="N7" s="8"/>
-      <c r="O7" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="7" t="s">
+      <c r="R7" s="16"/>
+      <c r="S7" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="T7" s="12"/>
+      <c r="U7" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="R7" s="8"/>
-      <c r="S7" s="7" t="s">
+      <c r="V7" s="12"/>
+      <c r="W7" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="T7" s="8"/>
-      <c r="U7" s="7" t="s">
+      <c r="X7" s="12"/>
+      <c r="Y7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="V7" s="8"/>
-      <c r="W7" s="7" t="s">
+      <c r="Z7" s="12"/>
+      <c r="AA7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="X7" s="8"/>
-      <c r="Y7" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z7" s="8"/>
-      <c r="AA7" s="7" t="s">
+      <c r="AB7" s="12"/>
+      <c r="AC7" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD7" s="12"/>
+      <c r="AE7" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="AB7" s="8"/>
-      <c r="AC7" s="7" t="s">
+      <c r="AF7" s="12"/>
+      <c r="AG7" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="AD7" s="8"/>
-      <c r="AE7" s="7" t="s">
+      <c r="AH7" s="12"/>
+      <c r="AI7" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="AF7" s="8"/>
-    </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="K8" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="L8" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="M8" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="N8" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="O8" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="P8" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="R8" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="S8" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="T8" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="U8" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="V8" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="W8" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="X8" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y8" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA8" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC8" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE8" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AJ7" s="12"/>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="N8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="P8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="R8" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="S8" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="T8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="U8" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="V8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="W8" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="X8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA8" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC8" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE8" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG8" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI8" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="2">
         <v>1</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="12">
-        <v>1</v>
-      </c>
-      <c r="I9" s="11"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="12">
+      <c r="C9" s="3"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="4">
+        <v>1</v>
+      </c>
+      <c r="I9" s="3"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="4">
         <v>2</v>
       </c>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="12"/>
-      <c r="S9" s="11"/>
-      <c r="T9" s="12"/>
-      <c r="U9" s="11"/>
-      <c r="V9" s="12"/>
-      <c r="W9" s="11"/>
-      <c r="X9" s="12"/>
-      <c r="Y9" s="11"/>
-      <c r="Z9" s="12"/>
-      <c r="AA9" s="11" t="s">
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="24"/>
+      <c r="T9" s="25"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="4"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="4"/>
+      <c r="AA9" s="3"/>
+      <c r="AB9" s="4"/>
+      <c r="AC9" s="3"/>
+      <c r="AD9" s="4"/>
+      <c r="AE9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AB9" s="12">
-        <v>1</v>
-      </c>
-      <c r="AC9" s="11"/>
-      <c r="AD9" s="12"/>
-      <c r="AE9" s="1" t="s">
+      <c r="AF9" s="4">
+        <v>1</v>
+      </c>
+      <c r="AG9" s="3"/>
+      <c r="AH9" s="4"/>
+      <c r="AI9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="AF9" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AJ9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10" s="4"/>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="4">
         <v>2</v>
       </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="12"/>
-      <c r="S10" s="11" t="s">
+      <c r="E10" s="3"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="24"/>
+      <c r="T10" s="25"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="T10" s="12">
+      <c r="X10" s="4">
         <v>2</v>
       </c>
-      <c r="U10" s="11"/>
-      <c r="V10" s="12"/>
-      <c r="W10" s="11"/>
-      <c r="X10" s="12"/>
-      <c r="Y10" s="11"/>
-      <c r="Z10" s="12"/>
-      <c r="AA10" s="11"/>
-      <c r="AB10" s="12"/>
-      <c r="AC10" s="11"/>
-      <c r="AD10" s="12"/>
-      <c r="AE10" s="1" t="s">
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="4"/>
+      <c r="AA10" s="3"/>
+      <c r="AB10" s="4"/>
+      <c r="AC10" s="3"/>
+      <c r="AD10" s="4"/>
+      <c r="AE10" s="3"/>
+      <c r="AF10" s="4"/>
+      <c r="AG10" s="3"/>
+      <c r="AH10" s="4"/>
+      <c r="AI10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="AF10" s="2">
+      <c r="AJ10" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="2">
         <v>2</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="12" t="s">
+      <c r="C11" s="3"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="11"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="12">
+      <c r="G11" s="3"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="4">
         <v>3</v>
       </c>
-      <c r="K11" s="11"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="12"/>
-      <c r="S11" s="11" t="s">
+      <c r="K11" s="3"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19">
+        <v>5</v>
+      </c>
+      <c r="S11" s="24"/>
+      <c r="T11" s="25"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="T11" s="12">
+      <c r="X11" s="4">
         <v>2</v>
       </c>
-      <c r="U11" s="11"/>
-      <c r="V11" s="12"/>
-      <c r="W11" s="11"/>
-      <c r="X11" s="12"/>
-      <c r="Y11" s="11"/>
-      <c r="Z11" s="12"/>
-      <c r="AA11" s="11"/>
-      <c r="AB11" s="12"/>
-      <c r="AC11" s="11"/>
-      <c r="AD11" s="12"/>
-      <c r="AE11" s="1" t="s">
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="4"/>
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="4"/>
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="4"/>
+      <c r="AE11" s="3"/>
+      <c r="AF11" s="4"/>
+      <c r="AG11" s="3"/>
+      <c r="AH11" s="4"/>
+      <c r="AI11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="AF11" s="2">
+      <c r="AJ11" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" s="4"/>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="4">
         <v>3</v>
       </c>
-      <c r="E12" s="11"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="12"/>
-      <c r="S12" s="11" t="s">
+      <c r="E12" s="3"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="24"/>
+      <c r="T12" s="25"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="T12" s="12">
+      <c r="X12" s="4">
         <v>3</v>
       </c>
-      <c r="U12" s="11"/>
-      <c r="V12" s="12"/>
-      <c r="W12" s="11"/>
-      <c r="X12" s="12"/>
-      <c r="Y12" s="11"/>
-      <c r="Z12" s="12"/>
-      <c r="AA12" s="11"/>
-      <c r="AB12" s="12"/>
-      <c r="AC12" s="11"/>
-      <c r="AD12" s="12"/>
-      <c r="AE12" s="1" t="s">
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="4"/>
+      <c r="AA12" s="3"/>
+      <c r="AB12" s="4"/>
+      <c r="AC12" s="3"/>
+      <c r="AD12" s="4"/>
+      <c r="AE12" s="3"/>
+      <c r="AF12" s="4"/>
+      <c r="AG12" s="3"/>
+      <c r="AH12" s="4"/>
+      <c r="AI12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AF12" s="2">
+      <c r="AJ12" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="B13" s="4"/>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="4">
         <v>4</v>
       </c>
-      <c r="E13" s="11"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="12"/>
-      <c r="S13" s="11" t="s">
+      <c r="E13" s="3"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="24"/>
+      <c r="T13" s="25"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="T13" s="12">
+      <c r="X13" s="4">
         <v>4</v>
       </c>
-      <c r="U13" s="11"/>
-      <c r="V13" s="12"/>
-      <c r="W13" s="11"/>
-      <c r="X13" s="12"/>
-      <c r="Y13" s="11"/>
-      <c r="Z13" s="12"/>
-      <c r="AA13" s="11"/>
-      <c r="AB13" s="12"/>
-      <c r="AC13" s="11"/>
-      <c r="AD13" s="12"/>
-      <c r="AE13" s="1" t="s">
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="4"/>
+      <c r="AA13" s="3"/>
+      <c r="AB13" s="4"/>
+      <c r="AC13" s="3"/>
+      <c r="AD13" s="4"/>
+      <c r="AE13" s="3"/>
+      <c r="AF13" s="4"/>
+      <c r="AG13" s="3"/>
+      <c r="AH13" s="4"/>
+      <c r="AI13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="AF13" s="2">
+      <c r="AJ13" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
       <c r="B14" s="4"/>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="4">
         <v>6</v>
       </c>
-      <c r="E14" s="11"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="12"/>
-      <c r="S14" s="11" t="s">
+      <c r="E14" s="3"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="24"/>
+      <c r="T14" s="25"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="T14" s="12">
+      <c r="X14" s="4">
         <v>6</v>
       </c>
-      <c r="U14" s="11"/>
-      <c r="V14" s="12"/>
-      <c r="W14" s="11"/>
-      <c r="X14" s="12"/>
-      <c r="Y14" s="11"/>
-      <c r="Z14" s="12"/>
-      <c r="AA14" s="11"/>
-      <c r="AB14" s="12"/>
-      <c r="AC14" s="11"/>
-      <c r="AD14" s="12"/>
-      <c r="AE14" s="1" t="s">
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="4"/>
+      <c r="AA14" s="3"/>
+      <c r="AB14" s="4"/>
+      <c r="AC14" s="3"/>
+      <c r="AD14" s="4"/>
+      <c r="AE14" s="3"/>
+      <c r="AF14" s="4"/>
+      <c r="AG14" s="3"/>
+      <c r="AH14" s="4"/>
+      <c r="AI14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="AF14" s="2">
+      <c r="AJ14" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A15" s="3"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="21">
+        <v>5</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="13"/>
+      <c r="S15" s="24"/>
+      <c r="T15" s="25"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="X15" s="21">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="4"/>
+      <c r="AA15" s="3"/>
+      <c r="AB15" s="4"/>
+      <c r="AC15" s="3"/>
+      <c r="AD15" s="4"/>
+      <c r="AE15" s="3"/>
+      <c r="AF15" s="4"/>
+      <c r="AG15" s="3"/>
+      <c r="AH15" s="4"/>
+      <c r="AI15" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ15" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B16" s="2">
         <v>3</v>
       </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="12">
+      <c r="C16" s="3"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="4">
         <v>3</v>
       </c>
-      <c r="I15" s="11"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="12">
+      <c r="I16" s="3"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="4">
         <v>2</v>
       </c>
-      <c r="M15" s="11"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="11" t="s">
+      <c r="M16" s="3"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="24"/>
+      <c r="T16" s="25"/>
+      <c r="U16" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="R15" s="12">
+      <c r="V16" s="4">
         <v>3</v>
       </c>
-      <c r="S15" s="11"/>
-      <c r="T15" s="12"/>
-      <c r="U15" s="11"/>
-      <c r="V15" s="12"/>
-      <c r="W15" s="11"/>
-      <c r="X15" s="12"/>
-      <c r="Y15" s="11"/>
-      <c r="Z15" s="12"/>
-      <c r="AA15" s="11"/>
-      <c r="AB15" s="12"/>
-      <c r="AC15" s="11" t="s">
+      <c r="W16" s="3"/>
+      <c r="X16" s="4"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="4"/>
+      <c r="AA16" s="3"/>
+      <c r="AB16" s="4"/>
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="4"/>
+      <c r="AE16" s="3"/>
+      <c r="AF16" s="4"/>
+      <c r="AG16" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="AD15" s="12">
+      <c r="AH16" s="4">
         <v>3</v>
       </c>
-      <c r="AE15" s="1" t="s">
+      <c r="AI16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AF15" s="2">
+      <c r="AJ16" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="11" t="s">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A17" s="3"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D17" s="4">
         <v>2</v>
       </c>
-      <c r="E16" s="11"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="12"/>
-      <c r="S16" s="11" t="s">
+      <c r="E17" s="3"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="13"/>
+      <c r="S17" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="T16" s="12">
+      <c r="T17" s="25">
         <v>2</v>
       </c>
-      <c r="U16" s="11"/>
-      <c r="V16" s="12"/>
-      <c r="W16" s="11"/>
-      <c r="X16" s="12"/>
-      <c r="Y16" s="11"/>
-      <c r="Z16" s="12"/>
-      <c r="AA16" s="11"/>
-      <c r="AB16" s="12"/>
-      <c r="AC16" s="11"/>
-      <c r="AD16" s="12"/>
-      <c r="AE16" s="1" t="s">
+      <c r="U17" s="3"/>
+      <c r="V17" s="4"/>
+      <c r="W17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="AF16" s="2">
+      <c r="X17" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="4"/>
+      <c r="AA17" s="3"/>
+      <c r="AB17" s="4"/>
+      <c r="AC17" s="3"/>
+      <c r="AD17" s="4"/>
+      <c r="AE17" s="3"/>
+      <c r="AF17" s="4"/>
+      <c r="AG17" s="3"/>
+      <c r="AH17" s="4"/>
+      <c r="AI17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AJ17" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B18" s="2">
         <v>4</v>
       </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="12" t="s">
+      <c r="C18" s="3"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I17" s="11"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="12"/>
-      <c r="S17" s="11"/>
-      <c r="T17" s="12"/>
-      <c r="U17" s="11" t="s">
+      <c r="I18" s="3"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="13"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="4"/>
+      <c r="Y18" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="V17" s="12">
+      <c r="Z18" s="4">
         <v>4</v>
       </c>
-      <c r="W17" s="11"/>
-      <c r="X17" s="12"/>
-      <c r="Y17" s="11"/>
-      <c r="Z17" s="12"/>
-      <c r="AA17" s="11"/>
-      <c r="AB17" s="12"/>
-      <c r="AC17" s="11"/>
-      <c r="AD17" s="12"/>
-      <c r="AE17" s="1" t="s">
+      <c r="AA18" s="3"/>
+      <c r="AB18" s="4"/>
+      <c r="AC18" s="3"/>
+      <c r="AD18" s="4"/>
+      <c r="AE18" s="3"/>
+      <c r="AF18" s="4"/>
+      <c r="AG18" s="3"/>
+      <c r="AH18" s="4"/>
+      <c r="AI18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="AF17" s="2">
+      <c r="AJ18" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="11" t="s">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A19" s="3"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D19" s="4">
         <v>5</v>
       </c>
-      <c r="E18" s="11"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="12"/>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="12"/>
-      <c r="S18" s="11"/>
-      <c r="T18" s="12"/>
-      <c r="U18" s="11" t="s">
+      <c r="E19" s="3"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="13"/>
+      <c r="R19" s="13"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="4"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="4"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="4"/>
+      <c r="Y19" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="V18" s="12">
+      <c r="Z19" s="4">
         <v>5</v>
       </c>
-      <c r="W18" s="11"/>
-      <c r="X18" s="12"/>
-      <c r="Y18" s="11"/>
-      <c r="Z18" s="12"/>
-      <c r="AA18" s="11"/>
-      <c r="AB18" s="12"/>
-      <c r="AC18" s="11"/>
-      <c r="AD18" s="12"/>
-      <c r="AE18" s="1" t="s">
+      <c r="AA19" s="3"/>
+      <c r="AB19" s="4"/>
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="4"/>
+      <c r="AE19" s="3"/>
+      <c r="AF19" s="4"/>
+      <c r="AG19" s="3"/>
+      <c r="AH19" s="4"/>
+      <c r="AI19" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="AF18" s="2">
+      <c r="AJ19" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B20" s="2">
         <v>5</v>
       </c>
-      <c r="C19" s="11"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="12">
+      <c r="C20" s="3"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="4">
         <v>5</v>
       </c>
-      <c r="I19" s="11"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="12">
+      <c r="I20" s="3"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="4">
         <v>2</v>
       </c>
-      <c r="O19" s="11"/>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="11"/>
-      <c r="R19" s="12"/>
-      <c r="S19" s="11"/>
-      <c r="T19" s="12"/>
-      <c r="U19" s="11"/>
-      <c r="V19" s="12"/>
-      <c r="W19" s="11"/>
-      <c r="X19" s="12"/>
-      <c r="Y19" s="11" t="s">
+      <c r="O20" s="3"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="13"/>
+      <c r="R20" s="13"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="4"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="4"/>
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="4"/>
+      <c r="AA20" s="3"/>
+      <c r="AB20" s="4"/>
+      <c r="AC20" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Z19" s="12">
+      <c r="AD20" s="4">
         <v>5</v>
       </c>
-      <c r="AA19" s="11"/>
-      <c r="AB19" s="12"/>
-      <c r="AC19" s="11"/>
-      <c r="AD19" s="12"/>
-      <c r="AE19" s="1" t="s">
+      <c r="AE20" s="3"/>
+      <c r="AF20" s="4"/>
+      <c r="AG20" s="3"/>
+      <c r="AH20" s="4"/>
+      <c r="AI20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="AF19" s="2">
+      <c r="AJ20" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="11" t="s">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A21" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="12">
+      <c r="B21" s="23">
+        <v>0</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="13"/>
+      <c r="R21" s="19">
+        <v>4</v>
+      </c>
+      <c r="S21" s="3"/>
+      <c r="T21" s="4"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="4"/>
+      <c r="W21" s="3"/>
+      <c r="X21" s="4"/>
+      <c r="Y21" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z21" s="21">
+        <v>4</v>
+      </c>
+      <c r="AA21" s="3"/>
+      <c r="AB21" s="4"/>
+      <c r="AC21" s="20"/>
+      <c r="AD21" s="21"/>
+      <c r="AE21" s="3"/>
+      <c r="AF21" s="4"/>
+      <c r="AG21" s="3"/>
+      <c r="AH21" s="4"/>
+      <c r="AI21" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ21" s="23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A22" s="3"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="4">
         <v>2</v>
       </c>
-      <c r="E20" s="11"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="11"/>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="11"/>
-      <c r="R20" s="12"/>
-      <c r="S20" s="11" t="s">
+      <c r="E22" s="3"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="13"/>
+      <c r="R22" s="13"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="4"/>
+      <c r="W22" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="T20" s="12">
+      <c r="X22" s="4">
         <v>2</v>
       </c>
-      <c r="U20" s="11"/>
-      <c r="V20" s="12"/>
-      <c r="W20" s="11"/>
-      <c r="X20" s="12"/>
-      <c r="Y20" s="11"/>
-      <c r="Z20" s="12"/>
-      <c r="AA20" s="11"/>
-      <c r="AB20" s="12"/>
-      <c r="AC20" s="11"/>
-      <c r="AD20" s="12"/>
-      <c r="AE20" s="1" t="s">
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="4"/>
+      <c r="AA22" s="3"/>
+      <c r="AB22" s="4"/>
+      <c r="AC22" s="3"/>
+      <c r="AD22" s="4"/>
+      <c r="AE22" s="3"/>
+      <c r="AF22" s="4"/>
+      <c r="AG22" s="3"/>
+      <c r="AH22" s="4"/>
+      <c r="AI22" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="AF20" s="2">
+      <c r="AJ22" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A23" s="3"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="21">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="13"/>
+      <c r="R23" s="19">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3"/>
+      <c r="T23" s="4"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="4"/>
+      <c r="W23" s="3"/>
+      <c r="X23" s="4"/>
+      <c r="Y23" s="3"/>
+      <c r="Z23" s="4"/>
+      <c r="AA23" s="3"/>
+      <c r="AB23" s="4"/>
+      <c r="AC23" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD23" s="21">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="3"/>
+      <c r="AF23" s="4"/>
+      <c r="AG23" s="3"/>
+      <c r="AH23" s="4"/>
+      <c r="AI23" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ23" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B24" s="6">
         <v>6</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="14">
+      <c r="C24" s="9"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="10">
         <v>6</v>
       </c>
-      <c r="I21" s="13"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="14"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="14"/>
-      <c r="Q21" s="13"/>
-      <c r="R21" s="14"/>
-      <c r="S21" s="13"/>
-      <c r="T21" s="14"/>
-      <c r="U21" s="13"/>
-      <c r="V21" s="14"/>
-      <c r="W21" s="13" t="s">
+      <c r="I24" s="9"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="14"/>
+      <c r="R24" s="14"/>
+      <c r="S24" s="9"/>
+      <c r="T24" s="10"/>
+      <c r="U24" s="9"/>
+      <c r="V24" s="10"/>
+      <c r="W24" s="9"/>
+      <c r="X24" s="10"/>
+      <c r="Y24" s="9"/>
+      <c r="Z24" s="10"/>
+      <c r="AA24" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="X21" s="14">
+      <c r="AB24" s="10">
         <v>6</v>
       </c>
-      <c r="Y21" s="13"/>
-      <c r="Z21" s="14"/>
-      <c r="AA21" s="13"/>
-      <c r="AB21" s="14"/>
-      <c r="AC21" s="13"/>
-      <c r="AD21" s="14"/>
-      <c r="AE21" s="5" t="s">
+      <c r="AC24" s="9"/>
+      <c r="AD24" s="10"/>
+      <c r="AE24" s="9"/>
+      <c r="AF24" s="10"/>
+      <c r="AG24" s="9"/>
+      <c r="AH24" s="10"/>
+      <c r="AI24" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="AF21" s="6">
+      <c r="AJ24" s="6">
         <v>6</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="AE7:AF7"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="W7:X7"/>
-    <mergeCell ref="AC7:AD7"/>
+  <mergeCells count="18">
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="K7:L7"/>
+    <mergeCell ref="AI7:AJ7"/>
+    <mergeCell ref="AC7:AD7"/>
+    <mergeCell ref="AE7:AF7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="AG7:AH7"/>
     <mergeCell ref="M7:N7"/>
     <mergeCell ref="O7:P7"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="S7:T7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/data_input/analytics/state-intent matrix.xlsx
+++ b/data_input/analytics/state-intent matrix.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\albud\Downloads\Telegram Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\budnik_an\cube linux\cube\data_input\analytics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{569429E8-F82E-4D33-A3F9-5B76AFD64BF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{0008ED27-0712-43D5-920A-7E8B572C54E9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="13900"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -123,7 +122,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -271,20 +270,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -298,9 +285,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -611,51 +610,51 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2F1A299-3274-4F64-AC7B-012C72EC8126}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:AJ24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="W1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="Z21" sqref="Z21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" customWidth="1"/>
-    <col min="5" max="5" width="8.109375" customWidth="1"/>
-    <col min="6" max="6" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.88671875" customWidth="1"/>
-    <col min="10" max="10" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.109375" customWidth="1"/>
-    <col min="12" max="12" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.44140625" customWidth="1"/>
-    <col min="15" max="15" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="8.08984375" customWidth="1"/>
+    <col min="6" max="6" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.90625" customWidth="1"/>
+    <col min="10" max="10" width="6.6328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.08984375" customWidth="1"/>
+    <col min="12" max="12" width="6.453125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.453125" customWidth="1"/>
+    <col min="15" max="15" width="12.36328125" customWidth="1"/>
     <col min="16" max="18" width="9" customWidth="1"/>
-    <col min="19" max="19" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.81640625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="9" customWidth="1"/>
-    <col min="21" max="21" width="16.6640625" customWidth="1"/>
-    <col min="22" max="22" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5546875" customWidth="1"/>
-    <col min="24" max="24" width="10.109375" customWidth="1"/>
+    <col min="21" max="21" width="16.6328125" customWidth="1"/>
+    <col min="22" max="22" width="6.6328125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.54296875" customWidth="1"/>
+    <col min="24" max="24" width="10.08984375" customWidth="1"/>
     <col min="25" max="25" width="14" customWidth="1"/>
-    <col min="26" max="26" width="7.44140625" customWidth="1"/>
+    <col min="26" max="26" width="7.453125" customWidth="1"/>
     <col min="27" max="27" width="12" customWidth="1"/>
     <col min="28" max="28" width="10" customWidth="1"/>
-    <col min="29" max="29" width="19.109375" customWidth="1"/>
+    <col min="29" max="29" width="19.08984375" customWidth="1"/>
     <col min="30" max="30" width="9" customWidth="1"/>
-    <col min="31" max="31" width="12.5546875" customWidth="1"/>
-    <col min="32" max="32" width="15.44140625" customWidth="1"/>
-    <col min="33" max="33" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.54296875" customWidth="1"/>
+    <col min="32" max="32" width="15.453125" customWidth="1"/>
+    <col min="33" max="33" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="6.453125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="6.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="U6">
         <v>3</v>
       </c>
@@ -675,81 +674,81 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A7" s="11" t="s">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A7" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="11" t="s">
+      <c r="B7" s="23"/>
+      <c r="C7" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="11" t="s">
+      <c r="D7" s="23"/>
+      <c r="E7" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="12"/>
-      <c r="G7" s="11" t="s">
+      <c r="F7" s="23"/>
+      <c r="G7" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="12"/>
-      <c r="I7" s="11" t="s">
+      <c r="H7" s="23"/>
+      <c r="I7" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="J7" s="12"/>
-      <c r="K7" s="11" t="s">
+      <c r="J7" s="23"/>
+      <c r="K7" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="L7" s="12"/>
-      <c r="M7" s="11" t="s">
+      <c r="L7" s="23"/>
+      <c r="M7" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="N7" s="12"/>
-      <c r="O7" s="11" t="s">
+      <c r="N7" s="23"/>
+      <c r="O7" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="15" t="s">
+      <c r="P7" s="23"/>
+      <c r="Q7" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="R7" s="16"/>
-      <c r="S7" s="11" t="s">
+      <c r="R7" s="25"/>
+      <c r="S7" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="T7" s="12"/>
-      <c r="U7" s="11" t="s">
+      <c r="T7" s="23"/>
+      <c r="U7" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="V7" s="12"/>
-      <c r="W7" s="11" t="s">
+      <c r="V7" s="23"/>
+      <c r="W7" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="X7" s="12"/>
-      <c r="Y7" s="11" t="s">
+      <c r="X7" s="23"/>
+      <c r="Y7" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="Z7" s="12"/>
-      <c r="AA7" s="11" t="s">
+      <c r="Z7" s="23"/>
+      <c r="AA7" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="AB7" s="12"/>
-      <c r="AC7" s="11" t="s">
+      <c r="AB7" s="23"/>
+      <c r="AC7" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="AD7" s="12"/>
-      <c r="AE7" s="11" t="s">
+      <c r="AD7" s="23"/>
+      <c r="AE7" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="AF7" s="12"/>
-      <c r="AG7" s="11" t="s">
+      <c r="AF7" s="23"/>
+      <c r="AG7" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="AH7" s="12"/>
-      <c r="AI7" s="11" t="s">
+      <c r="AH7" s="23"/>
+      <c r="AI7" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="AJ7" s="12"/>
-    </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AJ7" s="23"/>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -798,10 +797,10 @@
       <c r="P8" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="Q8" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="R8" s="18" t="s">
+      <c r="Q8" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="R8" s="14" t="s">
         <v>1</v>
       </c>
       <c r="S8" s="7" t="s">
@@ -859,7 +858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -884,10 +883,10 @@
       <c r="P9" s="4">
         <v>2</v>
       </c>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="19"/>
-      <c r="S9" s="24"/>
-      <c r="T9" s="25"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="20"/>
+      <c r="T9" s="21"/>
       <c r="U9" s="3"/>
       <c r="V9" s="4"/>
       <c r="W9" s="3"/>
@@ -913,7 +912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A10" s="3"/>
       <c r="B10" s="4"/>
       <c r="C10" s="3" t="s">
@@ -934,10 +933,10 @@
       <c r="N10" s="4"/>
       <c r="O10" s="3"/>
       <c r="P10" s="4"/>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="19"/>
-      <c r="S10" s="24"/>
-      <c r="T10" s="25"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="21"/>
       <c r="U10" s="3"/>
       <c r="V10" s="4"/>
       <c r="W10" s="3" t="s">
@@ -963,7 +962,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -988,12 +987,12 @@
       <c r="N11" s="4"/>
       <c r="O11" s="3"/>
       <c r="P11" s="4"/>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="19">
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15">
         <v>5</v>
       </c>
-      <c r="S11" s="24"/>
-      <c r="T11" s="25"/>
+      <c r="S11" s="20"/>
+      <c r="T11" s="21"/>
       <c r="U11" s="3"/>
       <c r="V11" s="4"/>
       <c r="W11" s="3" t="s">
@@ -1019,7 +1018,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A12" s="3"/>
       <c r="B12" s="4"/>
       <c r="C12" s="3" t="s">
@@ -1040,10 +1039,10 @@
       <c r="N12" s="4"/>
       <c r="O12" s="3"/>
       <c r="P12" s="4"/>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="13"/>
-      <c r="S12" s="24"/>
-      <c r="T12" s="25"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="21"/>
       <c r="U12" s="3"/>
       <c r="V12" s="4"/>
       <c r="W12" s="3" t="s">
@@ -1069,7 +1068,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A13" s="3"/>
       <c r="B13" s="4"/>
       <c r="C13" s="3" t="s">
@@ -1090,10 +1089,10 @@
       <c r="N13" s="4"/>
       <c r="O13" s="3"/>
       <c r="P13" s="4"/>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="13"/>
-      <c r="S13" s="24"/>
-      <c r="T13" s="25"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="20"/>
+      <c r="T13" s="21"/>
       <c r="U13" s="3"/>
       <c r="V13" s="4"/>
       <c r="W13" s="3" t="s">
@@ -1119,7 +1118,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A14" s="3"/>
       <c r="B14" s="4"/>
       <c r="C14" s="3" t="s">
@@ -1140,10 +1139,10 @@
       <c r="N14" s="4"/>
       <c r="O14" s="3"/>
       <c r="P14" s="4"/>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="13"/>
-      <c r="S14" s="24"/>
-      <c r="T14" s="25"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="20"/>
+      <c r="T14" s="21"/>
       <c r="U14" s="3"/>
       <c r="V14" s="4"/>
       <c r="W14" s="3" t="s">
@@ -1169,13 +1168,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A15" s="3"/>
       <c r="B15" s="4"/>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="21">
+      <c r="D15" s="17">
         <v>5</v>
       </c>
       <c r="E15" s="3"/>
@@ -1190,16 +1189,16 @@
       <c r="N15" s="4"/>
       <c r="O15" s="3"/>
       <c r="P15" s="4"/>
-      <c r="Q15" s="13"/>
-      <c r="R15" s="13"/>
-      <c r="S15" s="24"/>
-      <c r="T15" s="25"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="20"/>
+      <c r="T15" s="21"/>
       <c r="U15" s="3"/>
       <c r="V15" s="4"/>
-      <c r="W15" s="20" t="s">
+      <c r="W15" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="X15" s="21">
+      <c r="X15" s="17">
         <v>0</v>
       </c>
       <c r="Y15" s="3"/>
@@ -1212,14 +1211,14 @@
       <c r="AF15" s="4"/>
       <c r="AG15" s="3"/>
       <c r="AH15" s="4"/>
-      <c r="AI15" s="22" t="s">
+      <c r="AI15" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="AJ15" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AJ15" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
@@ -1244,10 +1243,10 @@
       <c r="N16" s="4"/>
       <c r="O16" s="3"/>
       <c r="P16" s="4"/>
-      <c r="Q16" s="13"/>
-      <c r="R16" s="13"/>
-      <c r="S16" s="24"/>
-      <c r="T16" s="25"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="20"/>
+      <c r="T16" s="21"/>
       <c r="U16" s="3" t="s">
         <v>12</v>
       </c>
@@ -1277,7 +1276,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A17" s="3"/>
       <c r="B17" s="4"/>
       <c r="C17" s="3" t="s">
@@ -1298,12 +1297,12 @@
       <c r="N17" s="4"/>
       <c r="O17" s="3"/>
       <c r="P17" s="4"/>
-      <c r="Q17" s="13"/>
-      <c r="R17" s="13"/>
-      <c r="S17" s="24" t="s">
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="T17" s="25">
+      <c r="T17" s="21">
         <v>2</v>
       </c>
       <c r="U17" s="3"/>
@@ -1331,7 +1330,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1354,8 +1353,8 @@
       <c r="N18" s="4"/>
       <c r="O18" s="3"/>
       <c r="P18" s="4"/>
-      <c r="Q18" s="13"/>
-      <c r="R18" s="13"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
       <c r="S18" s="3"/>
       <c r="T18" s="4"/>
       <c r="U18" s="3"/>
@@ -1383,7 +1382,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A19" s="3"/>
       <c r="B19" s="4"/>
       <c r="C19" s="3" t="s">
@@ -1404,8 +1403,8 @@
       <c r="N19" s="4"/>
       <c r="O19" s="3"/>
       <c r="P19" s="4"/>
-      <c r="Q19" s="13"/>
-      <c r="R19" s="13"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
       <c r="S19" s="3"/>
       <c r="T19" s="4"/>
       <c r="U19" s="3"/>
@@ -1433,7 +1432,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1458,8 +1457,8 @@
       </c>
       <c r="O20" s="3"/>
       <c r="P20" s="4"/>
-      <c r="Q20" s="13"/>
-      <c r="R20" s="13"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
       <c r="S20" s="3"/>
       <c r="T20" s="4"/>
       <c r="U20" s="3"/>
@@ -1487,11 +1486,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A21" s="22" t="s">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A21" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="23">
+      <c r="B21" s="19">
         <v>0</v>
       </c>
       <c r="C21" s="3"/>
@@ -1508,8 +1507,8 @@
       <c r="N21" s="4"/>
       <c r="O21" s="3"/>
       <c r="P21" s="4"/>
-      <c r="Q21" s="13"/>
-      <c r="R21" s="19">
+      <c r="Q21" s="11"/>
+      <c r="R21" s="15">
         <v>4</v>
       </c>
       <c r="S21" s="3"/>
@@ -1518,28 +1517,28 @@
       <c r="V21" s="4"/>
       <c r="W21" s="3"/>
       <c r="X21" s="4"/>
-      <c r="Y21" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z21" s="21">
-        <v>4</v>
-      </c>
+      <c r="Y21" s="16"/>
+      <c r="Z21" s="17"/>
       <c r="AA21" s="3"/>
       <c r="AB21" s="4"/>
-      <c r="AC21" s="20"/>
-      <c r="AD21" s="21"/>
+      <c r="AC21" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD21" s="17">
+        <v>4</v>
+      </c>
       <c r="AE21" s="3"/>
       <c r="AF21" s="4"/>
       <c r="AG21" s="3"/>
       <c r="AH21" s="4"/>
-      <c r="AI21" s="22" t="s">
+      <c r="AI21" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="AJ21" s="23">
+      <c r="AJ21" s="19">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A22" s="3"/>
       <c r="B22" s="4"/>
       <c r="C22" s="3" t="s">
@@ -1560,8 +1559,8 @@
       <c r="N22" s="4"/>
       <c r="O22" s="3"/>
       <c r="P22" s="4"/>
-      <c r="Q22" s="13"/>
-      <c r="R22" s="13"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
       <c r="S22" s="3"/>
       <c r="T22" s="4"/>
       <c r="U22" s="3"/>
@@ -1589,13 +1588,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A23" s="3"/>
       <c r="B23" s="4"/>
-      <c r="C23" s="20" t="s">
+      <c r="C23" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D23" s="21">
+      <c r="D23" s="17">
         <v>0</v>
       </c>
       <c r="E23" s="3"/>
@@ -1610,8 +1609,8 @@
       <c r="N23" s="4"/>
       <c r="O23" s="3"/>
       <c r="P23" s="4"/>
-      <c r="Q23" s="13"/>
-      <c r="R23" s="19">
+      <c r="Q23" s="11"/>
+      <c r="R23" s="15">
         <v>0</v>
       </c>
       <c r="S23" s="3"/>
@@ -1624,24 +1623,24 @@
       <c r="Z23" s="4"/>
       <c r="AA23" s="3"/>
       <c r="AB23" s="4"/>
-      <c r="AC23" s="20" t="s">
+      <c r="AC23" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="AD23" s="21">
+      <c r="AD23" s="17">
         <v>0</v>
       </c>
       <c r="AE23" s="3"/>
       <c r="AF23" s="4"/>
       <c r="AG23" s="3"/>
       <c r="AH23" s="4"/>
-      <c r="AI23" s="22" t="s">
+      <c r="AI23" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="AJ23" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AJ23" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="5" t="s">
         <v>15</v>
       </c>
@@ -1664,8 +1663,8 @@
       <c r="N24" s="10"/>
       <c r="O24" s="9"/>
       <c r="P24" s="10"/>
-      <c r="Q24" s="14"/>
-      <c r="R24" s="14"/>
+      <c r="Q24" s="12"/>
+      <c r="R24" s="12"/>
       <c r="S24" s="9"/>
       <c r="T24" s="10"/>
       <c r="U24" s="9"/>
@@ -1695,11 +1694,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
     <mergeCell ref="AI7:AJ7"/>
     <mergeCell ref="AC7:AD7"/>
     <mergeCell ref="AE7:AF7"/>
@@ -1713,6 +1707,11 @@
     <mergeCell ref="O7:P7"/>
     <mergeCell ref="Q7:R7"/>
     <mergeCell ref="S7:T7"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
